--- a/com.Znode/src/test/resources/TestData/testdata.xlsx
+++ b/com.Znode/src/test/resources/TestData/testdata.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="5985" activeTab="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>S.No.</t>
   </si>
@@ -77,20 +77,53 @@
     <t>Open the Brower</t>
   </si>
   <si>
-    <t>http://admin.znodellc.com</t>
-  </si>
-  <si>
-    <t> guest@znode.com</t>
-  </si>
-  <si>
-    <t>guest12345</t>
+    <t>Click on Menu icon</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>Click on Products in PIM Module</t>
+  </si>
+  <si>
+    <t>Click on Add New option in Products Page</t>
+  </si>
+  <si>
+    <t>//a[@class='btn-text-icon']</t>
+  </si>
+  <si>
+    <t>Enter Product Name in Add Product page</t>
+  </si>
+  <si>
+    <t>SendKeys</t>
+  </si>
+  <si>
+    <t>//input[@id='ProductName_11_0_0_1_attr']</t>
+  </si>
+  <si>
+    <t>//a[@id='20']</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>http://admin9xqa.znodellc.com/</t>
+  </si>
+  <si>
+    <t>admin@znode.com</t>
+  </si>
+  <si>
+    <t>admin12345</t>
+  </si>
+  <si>
+    <t>//i[@class='z-nav-menu']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +159,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF263238"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -141,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -164,11 +203,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -198,6 +250,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -290,6 +347,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -324,6 +382,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -499,14 +558,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="9" collapsed="1"/>
     <col min="2" max="2" width="24.140625" style="1" customWidth="1" collapsed="1"/>
@@ -514,7 +573,7 @@
     <col min="4" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -525,7 +584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -536,7 +595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -547,52 +606,52 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -604,20 +663,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.28515625" style="6" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="8.85546875" style="6" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="17.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="42.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="10.42578125" style="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1" collapsed="1"/>
@@ -626,7 +685,7 @@
     <col min="11" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -658,35 +717,163 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="24">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="13">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
